--- a/Assignment 2/doc/data/vox.xlsx
+++ b/Assignment 2/doc/data/vox.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="vox" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -855,12 +855,12 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="23607552"/>
-        <c:axId val="23625728"/>
-        <c:axId val="57556032"/>
+        <c:axId val="197712896"/>
+        <c:axId val="197722880"/>
+        <c:axId val="293148864"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="23607552"/>
+        <c:axId val="197712896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23625728"/>
+        <c:crossAx val="197722880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23625728"/>
+        <c:axId val="197722880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,12 +888,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23607552"/>
+        <c:crossAx val="197712896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="57556032"/>
+        <c:axId val="293148864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23625728"/>
+        <c:crossAx val="197722880"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
